--- a/biology/Botanique/Didiereaceae/Didiereaceae.xlsx
+++ b/biology/Botanique/Didiereaceae/Didiereaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Didieréacées regroupe des plantes dicotylédones ; elle comprend une grosse dizaine d'espèces réparties en 4 à 7 genres.
 Ce sont des arbres ou des arbustes, généralement à forme végétative très particulière, avec la fonction chlorophyllienne transférée aux tiges. Ils sont souvent épineux, pérennes, et généralement appelés succulentes.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Didierea, nommé en l'honneur de l'explorateur français Alfred Grandidier (1836-1921)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Didierea, nommé en l'honneur de l'explorateur français Alfred Grandidier (1836-1921).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[2] y incorpore les genres : Calyptrotheca, Ceraria, Portulacaria ; elle comprend donc 16 espèces réparties en 7 genres (dans ce cas la famille se trouve aussi en Afrique occidentale).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) y incorpore les genres : Calyptrotheca, Ceraria, Portulacaria ; elle comprend donc 16 espèces réparties en 7 genres (dans ce cas la famille se trouve aussi en Afrique occidentale).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (15 fév. 2008)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (15 fév. 2008) :
 genre Alluaudia (Drake) Drake
 genre Alluaudiopsis Humbert &amp; Choux
 genre Calyptrotheca Gilg
@@ -585,7 +603,7 @@
 genre Decaryia Choux
 genre Didierea Baill.
 genre Portulacaria Jacq.
-Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010) :
 genre Alluaudia (Drake) Drake (1901)
 genre Alluaudiopsis Humbert &amp; Choux (1934)
 genre Calyptrotheca Gilg (1897)
@@ -593,12 +611,12 @@
 genre Decarya Choux (1929)
 genre Didierea Baill. (1880)
 genre Portulacaria Jacq. (1786)
-Selon NCBI  (3 mai 2010)[5] :
+Selon NCBI  (3 mai 2010) :
 genre Alluaudia
 genre Alluaudiopsis
 genre Decarya
 genre Didierea
-Selon DELTA Angio           (3 mai 2010)[6] :
+Selon DELTA Angio           (3 mai 2010) :
 genre Didierea
 genre Alluaudia
 genre Alluaudiopsis
@@ -630,9 +648,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010) :
 genre Alluaudia (Drake) Drake (1901)
 Alluaudia ascendens (Drake) Drake (1903)
 Alluaudia comosa (Drake) Drake (1903)
@@ -662,7 +682,7 @@
 genre Portulacaria Jacq. (1786)
 Portulacaria afra Jacq. (1786)
 Portulacaria armiana Van Jaarsv. (1984)
-Selon NCBI  (3 mai 2010)[5] :
+Selon NCBI  (3 mai 2010) :
 genre Alluaudia
 Alluaudia ascendens
 Alluaudia comosa
